--- a/Tech_Hub.xlsx
+++ b/Tech_Hub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Employment_percent_relative_standard_error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Hourly_mean_wage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Annual_mean_wage</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Wage_percent_relative_standard_error</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hourly_10th_percentile_wage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Hourly_25th_percentile_wage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Hourly_median_wage</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Hourly_75th_percentile_wage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hourly_90th_percentile_wage</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Annual_10th_percentile_wage</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Annual_25th_percentile_wage</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Annual_median_wage</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Annual_75th_percentile_wage</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Annual_90th_percentile_wage</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Employment_per_1k_jobs</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Location_Quotient</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Number_of_Layoffs</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Layoffs_per_Capita</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Number_of_Tech_Events</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Average_7_Year_Growth_Rate</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Entry_Level_Tech_Wage</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Tech_Friendly_Index</t>
         </is>
@@ -480,19 +620,113 @@
         <v>11730</v>
       </c>
       <c r="C2" t="n">
+        <v>3.29999995231628</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97140</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.40000009536743</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>43480</v>
+      </c>
+      <c r="M2" t="n">
+        <v>62650</v>
+      </c>
+      <c r="N2" t="n">
+        <v>88460</v>
+      </c>
+      <c r="O2" t="n">
+        <v>128770</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>169410</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>29.6319999694824</v>
       </c>
-      <c r="D2" t="n">
+      <c r="R2" t="n">
         <v>0.870000004768372</v>
       </c>
-      <c r="E2" t="n">
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Albuquerque</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>20534</v>
+      </c>
+      <c r="U2" t="n">
+        <v>21211</v>
+      </c>
+      <c r="V2" t="n">
+        <v>21437</v>
+      </c>
+      <c r="W2" t="n">
+        <v>21778</v>
+      </c>
+      <c r="X2" t="n">
+        <v>22898</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23276</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23596</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Albuquerque, NM</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>561188</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3464</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Albuquerque, NM</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>98</v>
+      </c>
+      <c r="AG2" t="n">
         <v>2.111</v>
       </c>
-      <c r="F2" t="n">
+      <c r="AH2" t="n">
         <v>53065</v>
       </c>
-      <c r="G2" t="n">
-        <v>13274.35974999332</v>
+      <c r="AI2" t="n">
+        <v>7977.764682671324</v>
       </c>
     </row>
     <row r="3">
@@ -505,19 +739,113 @@
         <v>120180</v>
       </c>
       <c r="C3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>109210</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50.12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>54190</v>
+      </c>
+      <c r="M3" t="n">
+        <v>75590</v>
+      </c>
+      <c r="N3" t="n">
+        <v>104250</v>
+      </c>
+      <c r="O3" t="n">
+        <v>136030</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>167620</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>42.6520004272461</v>
       </c>
-      <c r="D3" t="n">
+      <c r="R3" t="n">
         <v>1.25</v>
       </c>
-      <c r="E3" t="n">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>209965</v>
+      </c>
+      <c r="U3" t="n">
+        <v>215036</v>
+      </c>
+      <c r="V3" t="n">
+        <v>214425</v>
+      </c>
+      <c r="W3" t="n">
+        <v>217589</v>
+      </c>
+      <c r="X3" t="n">
+        <v>227821</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>229584</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>235268</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>5234502</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15838</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.003025694</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>2937</v>
+      </c>
+      <c r="AG3" t="n">
         <v>1.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="AH3" t="n">
         <v>64890</v>
       </c>
-      <c r="G3" t="n">
-        <v>16233.78800010681</v>
+      <c r="AI3" t="n">
+        <v>10038.56269753741</v>
       </c>
     </row>
     <row r="4">
@@ -530,19 +858,113 @@
         <v>81150</v>
       </c>
       <c r="C4" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>111490</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.59999990463257</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67.84999999999999</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>50810</v>
+      </c>
+      <c r="M4" t="n">
+        <v>72940</v>
+      </c>
+      <c r="N4" t="n">
+        <v>105320</v>
+      </c>
+      <c r="O4" t="n">
+        <v>141130</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>172550</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>65.6859970092773</v>
       </c>
-      <c r="D4" t="n">
+      <c r="R4" t="n">
         <v>1.92999994754791</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>135358</v>
+      </c>
+      <c r="U4" t="n">
+        <v>144514</v>
+      </c>
+      <c r="V4" t="n">
+        <v>151594</v>
+      </c>
+      <c r="W4" t="n">
+        <v>157572</v>
+      </c>
+      <c r="X4" t="n">
+        <v>176248</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>180507</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>190186</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Austin, TX</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>4391747</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1353</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.000308078</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Austin, TX</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>996</v>
+      </c>
+      <c r="AG4" t="n">
         <v>4.914</v>
       </c>
-      <c r="F4" t="n">
+      <c r="AH4" t="n">
         <v>61875</v>
       </c>
-      <c r="G4" t="n">
-        <v>15486.78599924183</v>
+      <c r="AI4" t="n">
+        <v>9399.131668434029</v>
       </c>
     </row>
     <row r="5">
@@ -555,19 +977,113 @@
         <v>64180</v>
       </c>
       <c r="C5" t="n">
+        <v>1.79999995231628</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.76</v>
+      </c>
+      <c r="E5" t="n">
+        <v>128450</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.93</v>
+      </c>
+      <c r="H5" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>77.72</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>64330</v>
+      </c>
+      <c r="M5" t="n">
+        <v>88270</v>
+      </c>
+      <c r="N5" t="n">
+        <v>125280</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161670</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>194220</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>49.2039985656738</v>
       </c>
-      <c r="D5" t="n">
+      <c r="R5" t="n">
         <v>1.44000005722046</v>
       </c>
-      <c r="E5" t="n">
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Baltimore</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>100820</v>
+      </c>
+      <c r="U5" t="n">
+        <v>103080</v>
+      </c>
+      <c r="V5" t="n">
+        <v>103411</v>
+      </c>
+      <c r="W5" t="n">
+        <v>104078</v>
+      </c>
+      <c r="X5" t="n">
+        <v>104423</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>104838</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>106852</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Baltimore, MD</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>5370385</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5677</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.001057094</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Baltimore, MD</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>1857</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.653</v>
       </c>
-      <c r="F5" t="n">
+      <c r="AH5" t="n">
         <v>76300</v>
       </c>
-      <c r="G5" t="n">
-        <v>19087.75224965286</v>
+      <c r="AI5" t="n">
+        <v>11643.48479394346</v>
       </c>
     </row>
     <row r="6">
@@ -580,19 +1096,113 @@
         <v>10580</v>
       </c>
       <c r="C6" t="n">
+        <v>2.70000004768372</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.76</v>
+      </c>
+      <c r="E6" t="n">
+        <v>111810</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.80000019073486</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>60.36</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>47100</v>
+      </c>
+      <c r="M6" t="n">
+        <v>62710</v>
+      </c>
+      <c r="N6" t="n">
+        <v>86440</v>
+      </c>
+      <c r="O6" t="n">
+        <v>125540</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>163380</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>28.4099998474121</v>
       </c>
-      <c r="D6" t="n">
+      <c r="R6" t="n">
         <v>0.829999983310699</v>
       </c>
-      <c r="E6" t="n">
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Boise</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>23384</v>
+      </c>
+      <c r="U6" t="n">
+        <v>23737</v>
+      </c>
+      <c r="V6" t="n">
+        <v>23506</v>
+      </c>
+      <c r="W6" t="n">
+        <v>24048</v>
+      </c>
+      <c r="X6" t="n">
+        <v>25387</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>25749</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>26592</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Boise, ID</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>7963697</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17464</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.002192951</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Boise, ID</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>951</v>
+      </c>
+      <c r="AG6" t="n">
         <v>1.619</v>
       </c>
-      <c r="F6" t="n">
+      <c r="AH6" t="n">
         <v>54905</v>
       </c>
-      <c r="G6" t="n">
-        <v>13733.92324995852</v>
+      <c r="AI6" t="n">
+        <v>8338.603980663416</v>
       </c>
     </row>
     <row r="7">
@@ -605,19 +1215,113 @@
         <v>136640</v>
       </c>
       <c r="C7" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.92</v>
+      </c>
+      <c r="E7" t="n">
+        <v>128790</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43.83</v>
+      </c>
+      <c r="I7" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="J7" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>69030</v>
+      </c>
+      <c r="M7" t="n">
+        <v>91160</v>
+      </c>
+      <c r="N7" t="n">
+        <v>126180</v>
+      </c>
+      <c r="O7" t="n">
+        <v>161600</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>187750</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>49.4720001220703</v>
       </c>
-      <c r="D7" t="n">
+      <c r="R7" t="n">
         <v>1.45000004768372</v>
       </c>
-      <c r="E7" t="n">
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>262166</v>
+      </c>
+      <c r="U7" t="n">
+        <v>269471</v>
+      </c>
+      <c r="V7" t="n">
+        <v>266245</v>
+      </c>
+      <c r="W7" t="n">
+        <v>266780</v>
+      </c>
+      <c r="X7" t="n">
+        <v>270775</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>268934</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>274023</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>736976</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17458</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.023688695</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>1312</v>
+      </c>
+      <c r="AG7" t="n">
         <v>0.426</v>
       </c>
-      <c r="F7" t="n">
+      <c r="AH7" t="n">
         <v>80095</v>
       </c>
-      <c r="G7" t="n">
-        <v>20036.51450004006</v>
+      <c r="AI7" t="n">
+        <v>12158.23343117055</v>
       </c>
     </row>
     <row r="8">
@@ -630,19 +1334,113 @@
         <v>11770</v>
       </c>
       <c r="C8" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>97510</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G8" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43.26</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>48840</v>
+      </c>
+      <c r="M8" t="n">
+        <v>65950</v>
+      </c>
+      <c r="N8" t="n">
+        <v>89980</v>
+      </c>
+      <c r="O8" t="n">
+        <v>122710</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>153680</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>22.3320007324219</v>
       </c>
-      <c r="D8" t="n">
+      <c r="R8" t="n">
         <v>0.660000026226044</v>
       </c>
-      <c r="E8" t="n">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Buffalo</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>24205</v>
+      </c>
+      <c r="U8" t="n">
+        <v>23689</v>
+      </c>
+      <c r="V8" t="n">
+        <v>22550</v>
+      </c>
+      <c r="W8" t="n">
+        <v>22815</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23981</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>24550</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>25255</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Buffalo, NY</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>8566999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1581</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.000184545</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Buffalo, NY</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>1731</v>
+      </c>
+      <c r="AG8" t="n">
         <v>0.236</v>
       </c>
-      <c r="F8" t="n">
+      <c r="AH8" t="n">
         <v>57395</v>
       </c>
-      <c r="G8" t="n">
-        <v>14354.52400018835</v>
+      <c r="AI8" t="n">
+        <v>8788.13578173385</v>
       </c>
     </row>
     <row r="9">
@@ -655,19 +1453,113 @@
         <v>2540</v>
       </c>
       <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="E9" t="n">
+        <v>76790</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="I9" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="J9" t="n">
+        <v>45.94</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>57.97</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>40460</v>
+      </c>
+      <c r="M9" t="n">
+        <v>50390</v>
+      </c>
+      <c r="N9" t="n">
+        <v>67490</v>
+      </c>
+      <c r="O9" t="n">
+        <v>95560</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>120580</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>24.7229995727539</v>
       </c>
-      <c r="D9" t="n">
+      <c r="R9" t="n">
         <v>0.730000019073486</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>17654</v>
+      </c>
+      <c r="U9" t="n">
+        <v>17614</v>
+      </c>
+      <c r="V9" t="n">
+        <v>17890</v>
+      </c>
+      <c r="W9" t="n">
+        <v>17759</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19162</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>19588</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>20468</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Charleston, SC</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>2033509</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13275</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.006528125</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Charleston, SC</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>435</v>
+      </c>
+      <c r="AG9" t="n">
         <v>1.748</v>
       </c>
-      <c r="F9" t="n">
+      <c r="AH9" t="n">
         <v>45425</v>
       </c>
-      <c r="G9" t="n">
-        <v>11363.013749897</v>
+      <c r="AI9" t="n">
+        <v>6864.100497084502</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +1572,113 @@
         <v>11770</v>
       </c>
       <c r="C10" t="n">
+        <v>2.79999995231628</v>
+      </c>
+      <c r="D10" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>102120</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="H10" t="n">
+        <v>33.72</v>
+      </c>
+      <c r="I10" t="n">
+        <v>46.41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>60.59</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>50610</v>
+      </c>
+      <c r="M10" t="n">
+        <v>70150</v>
+      </c>
+      <c r="N10" t="n">
+        <v>96530</v>
+      </c>
+      <c r="O10" t="n">
+        <v>126030</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>155360</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>31.4039993286133</v>
       </c>
-      <c r="D10" t="n">
+      <c r="R10" t="n">
         <v>0.920000016689301</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>17654</v>
+      </c>
+      <c r="U10" t="n">
+        <v>17614</v>
+      </c>
+      <c r="V10" t="n">
+        <v>17890</v>
+      </c>
+      <c r="W10" t="n">
+        <v>17759</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19162</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19588</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>20468</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Charleston, SC</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>2033509</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13275</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.006528125</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Charleston, SC</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>435</v>
+      </c>
+      <c r="AG10" t="n">
         <v>1.748</v>
       </c>
-      <c r="F10" t="n">
+      <c r="AH10" t="n">
         <v>60380</v>
       </c>
-      <c r="G10" t="n">
-        <v>15103.47199983549</v>
+      <c r="AI10" t="n">
+        <v>9109.058747022991</v>
       </c>
     </row>
     <row r="11">
@@ -705,19 +1691,113 @@
         <v>60370</v>
       </c>
       <c r="C11" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="D11" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="E11" t="n">
+        <v>116020</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.47</v>
+      </c>
+      <c r="H11" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>55.06</v>
+      </c>
+      <c r="J11" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>59210</v>
+      </c>
+      <c r="M11" t="n">
+        <v>81920</v>
+      </c>
+      <c r="N11" t="n">
+        <v>114530</v>
+      </c>
+      <c r="O11" t="n">
+        <v>142880</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>168550</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>46.0379981994629</v>
       </c>
-      <c r="D11" t="n">
+      <c r="R11" t="n">
         <v>1.35000002384186</v>
       </c>
-      <c r="E11" t="n">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>79401</v>
+      </c>
+      <c r="U11" t="n">
+        <v>79943</v>
+      </c>
+      <c r="V11" t="n">
+        <v>83419</v>
+      </c>
+      <c r="W11" t="n">
+        <v>85263</v>
+      </c>
+      <c r="X11" t="n">
+        <v>89246</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>90859</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>93806</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>6374167</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15702</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.002463381</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>2241</v>
+      </c>
+      <c r="AG11" t="n">
         <v>2.272</v>
       </c>
-      <c r="F11" t="n">
+      <c r="AH11" t="n">
         <v>70565</v>
       </c>
-      <c r="G11" t="n">
-        <v>17653.59749955463</v>
+      <c r="AI11" t="n">
+        <v>10821.31085321653</v>
       </c>
     </row>
     <row r="12">
@@ -730,19 +1810,113 @@
         <v>4060</v>
       </c>
       <c r="C12" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D12" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E12" t="n">
+        <v>106600</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="H12" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="I12" t="n">
+        <v>48.83</v>
+      </c>
+      <c r="J12" t="n">
+        <v>62.18</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>56080</v>
+      </c>
+      <c r="M12" t="n">
+        <v>76680</v>
+      </c>
+      <c r="N12" t="n">
+        <v>101570</v>
+      </c>
+      <c r="O12" t="n">
+        <v>129340</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>165370</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>36.0779991149902</v>
       </c>
-      <c r="D12" t="n">
+      <c r="R12" t="n">
         <v>1.05999994277954</v>
       </c>
-      <c r="E12" t="n">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>79401</v>
+      </c>
+      <c r="U12" t="n">
+        <v>79943</v>
+      </c>
+      <c r="V12" t="n">
+        <v>83419</v>
+      </c>
+      <c r="W12" t="n">
+        <v>85263</v>
+      </c>
+      <c r="X12" t="n">
+        <v>89246</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>90859</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>93806</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>6374167</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15702</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.002463381</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>2241</v>
+      </c>
+      <c r="AG12" t="n">
         <v>2.272</v>
       </c>
-      <c r="F12" t="n">
+      <c r="AH12" t="n">
         <v>66380</v>
       </c>
-      <c r="G12" t="n">
-        <v>16604.7994997673</v>
+      <c r="AI12" t="n">
+        <v>10191.0128534292</v>
       </c>
     </row>
     <row r="13">
@@ -755,19 +1929,113 @@
         <v>129090</v>
       </c>
       <c r="C13" t="n">
+        <v>1.60000002384186</v>
+      </c>
+      <c r="D13" t="n">
+        <v>52.15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>108470</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="G13" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>36</v>
+      </c>
+      <c r="I13" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>64.39</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>54360</v>
+      </c>
+      <c r="M13" t="n">
+        <v>74890</v>
+      </c>
+      <c r="N13" t="n">
+        <v>102740</v>
+      </c>
+      <c r="O13" t="n">
+        <v>133940</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>165030</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>28.6429996490479</v>
       </c>
-      <c r="D13" t="n">
+      <c r="R13" t="n">
         <v>0.839999973773956</v>
       </c>
-      <c r="E13" t="n">
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>245968</v>
+      </c>
+      <c r="U13" t="n">
+        <v>248120</v>
+      </c>
+      <c r="V13" t="n">
+        <v>241768</v>
+      </c>
+      <c r="W13" t="n">
+        <v>238965</v>
+      </c>
+      <c r="X13" t="n">
+        <v>246517</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>245800</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>247935</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Chicago, IL</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>1291082</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5277</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.004087269</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Chicago, IL</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v>680</v>
+      </c>
+      <c r="AG13" t="n">
         <v>-0.011</v>
       </c>
-      <c r="F13" t="n">
+      <c r="AH13" t="n">
         <v>64625</v>
       </c>
-      <c r="G13" t="n">
-        <v>16163.57599990702</v>
+      <c r="AI13" t="n">
+        <v>9769.075041180116</v>
       </c>
     </row>
     <row r="14">
@@ -780,19 +2048,113 @@
         <v>540</v>
       </c>
       <c r="C14" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="D14" t="n">
+        <v>37.11</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77190</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="H14" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="I14" t="n">
+        <v>33.72</v>
+      </c>
+      <c r="J14" t="n">
+        <v>46.83</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>38880</v>
+      </c>
+      <c r="M14" t="n">
+        <v>49330</v>
+      </c>
+      <c r="N14" t="n">
+        <v>70140</v>
+      </c>
+      <c r="O14" t="n">
+        <v>97400</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>125780</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>12.1180000305176</v>
       </c>
-      <c r="D14" t="n">
+      <c r="R14" t="n">
         <v>0.360000014305115</v>
       </c>
-      <c r="E14" t="n">
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>51133</v>
+      </c>
+      <c r="U14" t="n">
+        <v>51580</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51170</v>
+      </c>
+      <c r="W14" t="n">
+        <v>51858</v>
+      </c>
+      <c r="X14" t="n">
+        <v>52708</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>52318</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>53085</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>380100</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2346</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="AF14" t="n">
+        <v>503</v>
+      </c>
+      <c r="AG14" t="n">
         <v>0.383</v>
       </c>
-      <c r="F14" t="n">
+      <c r="AH14" t="n">
         <v>44105</v>
       </c>
-      <c r="G14" t="n">
-        <v>11029.44725001049</v>
+      <c r="AI14" t="n">
+        <v>6669.265782688491</v>
       </c>
     </row>
     <row r="15">
@@ -805,19 +2167,113 @@
         <v>28190</v>
       </c>
       <c r="C15" t="n">
+        <v>3.29999995231628</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45.87</v>
+      </c>
+      <c r="E15" t="n">
+        <v>95400</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G15" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="H15" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="J15" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>49580</v>
+      </c>
+      <c r="M15" t="n">
+        <v>65620</v>
+      </c>
+      <c r="N15" t="n">
+        <v>90730</v>
+      </c>
+      <c r="O15" t="n">
+        <v>122310</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>144400</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>28.201000213623</v>
       </c>
-      <c r="D15" t="n">
+      <c r="R15" t="n">
         <v>0.829999983310699</v>
       </c>
-      <c r="E15" t="n">
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>51133</v>
+      </c>
+      <c r="U15" t="n">
+        <v>51580</v>
+      </c>
+      <c r="V15" t="n">
+        <v>51170</v>
+      </c>
+      <c r="W15" t="n">
+        <v>51858</v>
+      </c>
+      <c r="X15" t="n">
+        <v>52708</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>52318</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>53085</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>380100</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2346</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>503</v>
+      </c>
+      <c r="AG15" t="n">
         <v>0.383</v>
       </c>
-      <c r="F15" t="n">
+      <c r="AH15" t="n">
         <v>57600</v>
       </c>
-      <c r="G15" t="n">
-        <v>14407.31200005007</v>
+      <c r="AI15" t="n">
+        <v>8697.630532728066</v>
       </c>
     </row>
     <row r="16">
@@ -830,19 +2286,113 @@
         <v>16620</v>
       </c>
       <c r="C16" t="n">
+        <v>2.90000009536743</v>
+      </c>
+      <c r="D16" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="E16" t="n">
+        <v>115070</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="H16" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="I16" t="n">
+        <v>51.76</v>
+      </c>
+      <c r="J16" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>83.6</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>62160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>82620</v>
+      </c>
+      <c r="N16" t="n">
+        <v>107660</v>
+      </c>
+      <c r="O16" t="n">
+        <v>140790</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>173900</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>53.5550003051758</v>
       </c>
-      <c r="D16" t="n">
+      <c r="R16" t="n">
         <v>1.57000005245209</v>
       </c>
-      <c r="E16" t="n">
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>24946</v>
+      </c>
+      <c r="U16" t="n">
+        <v>25114</v>
+      </c>
+      <c r="V16" t="n">
+        <v>25405</v>
+      </c>
+      <c r="W16" t="n">
+        <v>26180</v>
+      </c>
+      <c r="X16" t="n">
+        <v>27954</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>28466</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29201</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Colorado Springs, CO</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>4091776</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19628</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.004796939</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Colorado Springs, CO</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
+        <v>2838</v>
+      </c>
+      <c r="AG16" t="n">
         <v>2.224</v>
       </c>
-      <c r="F16" t="n">
+      <c r="AH16" t="n">
         <v>72390</v>
       </c>
-      <c r="G16" t="n">
-        <v>18111.75875008678</v>
+      <c r="AI16" t="n">
+        <v>11156.66947039288</v>
       </c>
     </row>
     <row r="17">
@@ -855,19 +2405,113 @@
         <v>3780</v>
       </c>
       <c r="C17" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94430</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="G17" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="I17" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="J17" t="n">
+        <v>56.71</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>66.81</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>47510</v>
+      </c>
+      <c r="M17" t="n">
+        <v>67790</v>
+      </c>
+      <c r="N17" t="n">
+        <v>93630</v>
+      </c>
+      <c r="O17" t="n">
+        <v>117960</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>138970</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
         <v>33.1529998779297</v>
       </c>
-      <c r="D17" t="n">
+      <c r="R17" t="n">
         <v>0.97000002861023</v>
       </c>
-      <c r="E17" t="n">
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>62389</v>
+      </c>
+      <c r="U17" t="n">
+        <v>62576</v>
+      </c>
+      <c r="V17" t="n">
+        <v>61552</v>
+      </c>
+      <c r="W17" t="n">
+        <v>61493</v>
+      </c>
+      <c r="X17" t="n">
+        <v>62155</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>62144</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>62806</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>2849487</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8811</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.003092136</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
+        <v>650</v>
+      </c>
+      <c r="AG17" t="n">
         <v>-0.066</v>
       </c>
-      <c r="F17" t="n">
+      <c r="AH17" t="n">
         <v>57650</v>
       </c>
-      <c r="G17" t="n">
-        <v>14420.9657499752</v>
+      <c r="AI17" t="n">
+        <v>8720.962140761605</v>
       </c>
     </row>
     <row r="18">
@@ -880,19 +2524,113 @@
         <v>920</v>
       </c>
       <c r="C18" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="D18" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>87970</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="I18" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>46590</v>
+      </c>
+      <c r="M18" t="n">
+        <v>61500</v>
+      </c>
+      <c r="N18" t="n">
+        <v>82570</v>
+      </c>
+      <c r="O18" t="n">
+        <v>105390</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>132270</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>18.1049995422363</v>
       </c>
-      <c r="D18" t="n">
+      <c r="R18" t="n">
         <v>0.529999971389771</v>
       </c>
-      <c r="E18" t="n">
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>62389</v>
+      </c>
+      <c r="U18" t="n">
+        <v>62576</v>
+      </c>
+      <c r="V18" t="n">
+        <v>61552</v>
+      </c>
+      <c r="W18" t="n">
+        <v>61493</v>
+      </c>
+      <c r="X18" t="n">
+        <v>62155</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>62144</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>62806</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>2849487</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8811</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.003092136</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AF18" t="n">
+        <v>650</v>
+      </c>
+      <c r="AG18" t="n">
         <v>-0.066</v>
       </c>
-      <c r="F18" t="n">
+      <c r="AH18" t="n">
         <v>54045</v>
       </c>
-      <c r="G18" t="n">
-        <v>13515.86574987984</v>
+      <c r="AI18" t="n">
+        <v>8176.362140666237</v>
       </c>
     </row>
     <row r="19">
@@ -905,19 +2643,113 @@
         <v>38580</v>
       </c>
       <c r="C19" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="D19" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>102150</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="J19" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>49370</v>
+      </c>
+      <c r="M19" t="n">
+        <v>68560</v>
+      </c>
+      <c r="N19" t="n">
+        <v>99960</v>
+      </c>
+      <c r="O19" t="n">
+        <v>130350</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>151300</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>36.1479988098145</v>
       </c>
-      <c r="D19" t="n">
+      <c r="R19" t="n">
         <v>1.05999994277954</v>
       </c>
-      <c r="E19" t="n">
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>62389</v>
+      </c>
+      <c r="U19" t="n">
+        <v>62576</v>
+      </c>
+      <c r="V19" t="n">
+        <v>61552</v>
+      </c>
+      <c r="W19" t="n">
+        <v>61493</v>
+      </c>
+      <c r="X19" t="n">
+        <v>62155</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>62144</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>62806</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>2849487</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8811</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.003092136</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AF19" t="n">
+        <v>650</v>
+      </c>
+      <c r="AG19" t="n">
         <v>-0.066</v>
       </c>
-      <c r="F19" t="n">
+      <c r="AH19" t="n">
         <v>58965</v>
       </c>
-      <c r="G19" t="n">
-        <v>14750.48249969101</v>
+      <c r="AI19" t="n">
+        <v>8918.97889047741</v>
       </c>
     </row>
     <row r="20">
@@ -930,19 +2762,113 @@
         <v>188520</v>
       </c>
       <c r="C20" t="n">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="D20" t="n">
+        <v>53.37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>111010</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>36.76</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="J20" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>52260</v>
+      </c>
+      <c r="M20" t="n">
+        <v>76460</v>
+      </c>
+      <c r="N20" t="n">
+        <v>105210</v>
+      </c>
+      <c r="O20" t="n">
+        <v>136800</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>167550</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>47.5289993286133</v>
       </c>
-      <c r="D20" t="n">
+      <c r="R20" t="n">
         <v>1.38999998569489</v>
       </c>
-      <c r="E20" t="n">
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>287379</v>
+      </c>
+      <c r="U20" t="n">
+        <v>301240</v>
+      </c>
+      <c r="V20" t="n">
+        <v>310364</v>
+      </c>
+      <c r="W20" t="n">
+        <v>324080</v>
+      </c>
+      <c r="X20" t="n">
+        <v>349631</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>360322</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>375540</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>4942306</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15099</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.003055052</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AG20" t="n">
         <v>3.842</v>
       </c>
-      <c r="F20" t="n">
+      <c r="AH20" t="n">
         <v>64360</v>
       </c>
-      <c r="G20" t="n">
-        <v>16103.12074982929</v>
+      <c r="AI20" t="n">
+        <v>9845.212544324091</v>
       </c>
     </row>
     <row r="21">
@@ -955,19 +2881,113 @@
         <v>87630</v>
       </c>
       <c r="C21" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="D21" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="E21" t="n">
+        <v>119780</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="H21" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>54.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>69.31</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>63770</v>
+      </c>
+      <c r="M21" t="n">
+        <v>86520</v>
+      </c>
+      <c r="N21" t="n">
+        <v>113040</v>
+      </c>
+      <c r="O21" t="n">
+        <v>144160</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>172690</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>55.101001739502</v>
       </c>
-      <c r="D21" t="n">
+      <c r="R21" t="n">
         <v>1.62000000476837</v>
       </c>
-      <c r="E21" t="n">
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>139004</v>
+      </c>
+      <c r="U21" t="n">
+        <v>143259</v>
+      </c>
+      <c r="V21" t="n">
+        <v>145355</v>
+      </c>
+      <c r="W21" t="n">
+        <v>149931</v>
+      </c>
+      <c r="X21" t="n">
+        <v>159015</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>160057</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>165731</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Denver, CO</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>4565488</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>16888</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.003699057</v>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Denver, CO</t>
+        </is>
+      </c>
+      <c r="AF21" t="n">
+        <v>1343</v>
+      </c>
+      <c r="AG21" t="n">
         <v>2.378</v>
       </c>
-      <c r="F21" t="n">
+      <c r="AH21" t="n">
         <v>75145</v>
       </c>
-      <c r="G21" t="n">
-        <v>18800.94375043583</v>
+      <c r="AI21" t="n">
+        <v>11420.86228053013</v>
       </c>
     </row>
     <row r="22">
@@ -980,19 +3000,113 @@
         <v>17590</v>
       </c>
       <c r="C22" t="n">
+        <v>2.70000004768372</v>
+      </c>
+      <c r="D22" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>101500</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G22" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="H22" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>47.66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>51730</v>
+      </c>
+      <c r="M22" t="n">
+        <v>71030</v>
+      </c>
+      <c r="N22" t="n">
+        <v>99130</v>
+      </c>
+      <c r="O22" t="n">
+        <v>125130</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>144020</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
         <v>45.8919982910156</v>
       </c>
-      <c r="D22" t="n">
+      <c r="R22" t="n">
         <v>1.35000002384186</v>
       </c>
-      <c r="E22" t="n">
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Des Moines</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>23455</v>
+      </c>
+      <c r="U22" t="n">
+        <v>23559</v>
+      </c>
+      <c r="V22" t="n">
+        <v>23850</v>
+      </c>
+      <c r="W22" t="n">
+        <v>23851</v>
+      </c>
+      <c r="X22" t="n">
+        <v>24681</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>24908</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>25359</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Des Moines, IA</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>4153022</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8630</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.002078005</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>Des Moines, IA</t>
+        </is>
+      </c>
+      <c r="AF22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="AG22" t="n">
         <v>1.007</v>
       </c>
-      <c r="F22" t="n">
+      <c r="AH22" t="n">
         <v>61380</v>
       </c>
-      <c r="G22" t="n">
-        <v>15356.99474957752</v>
+      <c r="AI22" t="n">
+        <v>9422.144891777023</v>
       </c>
     </row>
     <row r="23">
@@ -1005,19 +3119,113 @@
         <v>63690</v>
       </c>
       <c r="C23" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D23" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100520</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="I23" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>62.12</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>70.84</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>52290</v>
+      </c>
+      <c r="M23" t="n">
+        <v>74100</v>
+      </c>
+      <c r="N23" t="n">
+        <v>100260</v>
+      </c>
+      <c r="O23" t="n">
+        <v>129200</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>147350</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
         <v>33.5190010070801</v>
       </c>
-      <c r="D23" t="n">
+      <c r="R23" t="n">
         <v>0.980000019073486</v>
       </c>
-      <c r="E23" t="n">
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>105625</v>
+      </c>
+      <c r="U23" t="n">
+        <v>105752</v>
+      </c>
+      <c r="V23" t="n">
+        <v>101799</v>
+      </c>
+      <c r="W23" t="n">
+        <v>101851</v>
+      </c>
+      <c r="X23" t="n">
+        <v>104124</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>103896</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>104172</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Detroit, MI</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>8033441</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>14598</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.001817154</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Detroit, MI</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>1412</v>
+      </c>
+      <c r="AG23" t="n">
         <v>-0.275</v>
       </c>
-      <c r="F23" t="n">
+      <c r="AH23" t="n">
         <v>63195</v>
       </c>
-      <c r="G23" t="n">
-        <v>15807.25700025558</v>
+      <c r="AI23" t="n">
+        <v>9628.943068540184</v>
       </c>
     </row>
     <row r="24">
@@ -1030,19 +3238,113 @@
         <v>21780</v>
       </c>
       <c r="C24" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D24" t="n">
+        <v>53.54</v>
+      </c>
+      <c r="E24" t="n">
+        <v>111360</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G24" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="H24" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="I24" t="n">
+        <v>51.22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>60810</v>
+      </c>
+      <c r="M24" t="n">
+        <v>80780</v>
+      </c>
+      <c r="N24" t="n">
+        <v>106530</v>
+      </c>
+      <c r="O24" t="n">
+        <v>135590</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>166400</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
         <v>38.6339988708496</v>
       </c>
-      <c r="D24" t="n">
+      <c r="R24" t="n">
         <v>1.12999999523163</v>
       </c>
-      <c r="E24" t="n">
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Hartford</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>37716</v>
+      </c>
+      <c r="U24" t="n">
+        <v>38106</v>
+      </c>
+      <c r="V24" t="n">
+        <v>37812</v>
+      </c>
+      <c r="W24" t="n">
+        <v>37253</v>
+      </c>
+      <c r="X24" t="n">
+        <v>38165</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>38515</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>38979</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Hartford, CT</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>7828484</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4952</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.000632562</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Hartford, CT</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
+        <v>1730</v>
+      </c>
+      <c r="AG24" t="n">
         <v>0.35</v>
       </c>
-      <c r="F24" t="n">
+      <c r="AH24" t="n">
         <v>70795</v>
       </c>
-      <c r="G24" t="n">
-        <v>17708.72199971676</v>
+      <c r="AI24" t="n">
+        <v>10802.23943646056</v>
       </c>
     </row>
     <row r="25">
@@ -1055,19 +3357,113 @@
         <v>87400</v>
       </c>
       <c r="C25" t="n">
+        <v>1.60000002384186</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="E25" t="n">
+        <v>104850</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="I25" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="J25" t="n">
+        <v>63.71</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>48860</v>
+      </c>
+      <c r="M25" t="n">
+        <v>65670</v>
+      </c>
+      <c r="N25" t="n">
+        <v>97640</v>
+      </c>
+      <c r="O25" t="n">
+        <v>132510</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>167500</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
         <v>27.4869995117187</v>
       </c>
-      <c r="D25" t="n">
+      <c r="R25" t="n">
         <v>0.810000002384186</v>
       </c>
-      <c r="E25" t="n">
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>131320</v>
+      </c>
+      <c r="U25" t="n">
+        <v>136620</v>
+      </c>
+      <c r="V25" t="n">
+        <v>137780</v>
+      </c>
+      <c r="W25" t="n">
+        <v>140676</v>
+      </c>
+      <c r="X25" t="n">
+        <v>149152</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>152084</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>155660</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Houston, TX</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>3724515</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3551</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.000953413</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Houston, TX</t>
+        </is>
+      </c>
+      <c r="AF25" t="n">
+        <v>1096</v>
+      </c>
+      <c r="AG25" t="n">
         <v>2.477</v>
       </c>
-      <c r="F25" t="n">
+      <c r="AH25" t="n">
         <v>57265</v>
       </c>
-      <c r="G25" t="n">
-        <v>14323.90299987841</v>
+      <c r="AI25" t="n">
+        <v>8707.126754537107</v>
       </c>
     </row>
     <row r="26">
@@ -1080,20 +3476,102 @@
         <v>19440</v>
       </c>
       <c r="C26" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="D26" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="E26" t="n">
+        <v>112700</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="H26" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="I26" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="J26" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>59530</v>
+      </c>
+      <c r="M26" t="n">
+        <v>80040</v>
+      </c>
+      <c r="N26" t="n">
+        <v>106410</v>
+      </c>
+      <c r="O26" t="n">
+        <v>139460</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>175780</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
         <v>77.4769973754883</v>
       </c>
-      <c r="D26" t="n">
+      <c r="R26" t="n">
         <v>2.26999998092651</v>
       </c>
-      <c r="E26" t="n">
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Huntsville</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>25469</v>
+      </c>
+      <c r="U26" t="n">
+        <v>26448</v>
+      </c>
+      <c r="V26" t="n">
+        <v>27081</v>
+      </c>
+      <c r="W26" t="n">
+        <v>27489</v>
+      </c>
+      <c r="X26" t="n">
+        <v>28542</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>28683</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29135</v>
+      </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Huntsville, AL</t>
+        </is>
+      </c>
+      <c r="AF26" t="n">
+        <v>2426</v>
+      </c>
+      <c r="AG26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="n">
+      <c r="AH26" t="n">
         <v>69785</v>
       </c>
-      <c r="G26" t="n">
-        <v>17466.57324934006</v>
-      </c>
+      <c r="AI26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1105,19 +3583,113 @@
         <v>32950</v>
       </c>
       <c r="C27" t="n">
+        <v>1.79999995231628</v>
+      </c>
+      <c r="D27" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="E27" t="n">
+        <v>94250</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="H27" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>49960</v>
+      </c>
+      <c r="M27" t="n">
+        <v>65000</v>
+      </c>
+      <c r="N27" t="n">
+        <v>87810</v>
+      </c>
+      <c r="O27" t="n">
+        <v>115960</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>141520</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>30.4009990692139</v>
       </c>
-      <c r="D27" t="n">
+      <c r="R27" t="n">
         <v>0.889999985694885</v>
       </c>
-      <c r="E27" t="n">
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Indianapolis</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>52047</v>
+      </c>
+      <c r="U27" t="n">
+        <v>53706</v>
+      </c>
+      <c r="V27" t="n">
+        <v>53438</v>
+      </c>
+      <c r="W27" t="n">
+        <v>53706</v>
+      </c>
+      <c r="X27" t="n">
+        <v>54958</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>55585</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>56990</v>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>4377576</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13917</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.003179157</v>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN</t>
+        </is>
+      </c>
+      <c r="AF27" t="n">
+        <v>2579</v>
+      </c>
+      <c r="AG27" t="n">
         <v>1.102</v>
       </c>
-      <c r="F27" t="n">
+      <c r="AH27" t="n">
         <v>57480</v>
       </c>
-      <c r="G27" t="n">
-        <v>14378.05374976444</v>
+      <c r="AI27" t="n">
+        <v>8888.008531848744</v>
       </c>
     </row>
     <row r="28">
@@ -1130,19 +3702,113 @@
         <v>43400</v>
       </c>
       <c r="C28" t="n">
+        <v>2.40000009536743</v>
+      </c>
+      <c r="D28" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="E28" t="n">
+        <v>99310</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G28" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="H28" t="n">
+        <v>31.74</v>
+      </c>
+      <c r="I28" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="J28" t="n">
+        <v>61.98</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>49380</v>
+      </c>
+      <c r="M28" t="n">
+        <v>66030</v>
+      </c>
+      <c r="N28" t="n">
+        <v>97800</v>
+      </c>
+      <c r="O28" t="n">
+        <v>128910</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>151190</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>40.2470016479492</v>
       </c>
-      <c r="D28" t="n">
+      <c r="R28" t="n">
         <v>1.17999994754791</v>
       </c>
-      <c r="E28" t="n">
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Kansas City</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>71823</v>
+      </c>
+      <c r="U28" t="n">
+        <v>72720</v>
+      </c>
+      <c r="V28" t="n">
+        <v>75261</v>
+      </c>
+      <c r="W28" t="n">
+        <v>74891</v>
+      </c>
+      <c r="X28" t="n">
+        <v>76827</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>77699</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>78927</v>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Kansas City, MO</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>7378141</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.000223634</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Kansas City, MO</t>
+        </is>
+      </c>
+      <c r="AF28" t="n">
+        <v>1881</v>
+      </c>
+      <c r="AG28" t="n">
         <v>1.319</v>
       </c>
-      <c r="F28" t="n">
+      <c r="AH28" t="n">
         <v>57705</v>
       </c>
-      <c r="G28" t="n">
-        <v>14436.8775004015</v>
+      <c r="AI28" t="n">
+        <v>8854.543428038098</v>
       </c>
     </row>
     <row r="29">
@@ -1155,19 +3821,113 @@
         <v>18980</v>
       </c>
       <c r="C29" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="D29" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>92970</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="G29" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>44910</v>
+      </c>
+      <c r="M29" t="n">
+        <v>56850</v>
+      </c>
+      <c r="N29" t="n">
+        <v>81680</v>
+      </c>
+      <c r="O29" t="n">
+        <v>116280</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>158810</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>17.5219993591309</v>
       </c>
-      <c r="D29" t="n">
+      <c r="R29" t="n">
         <v>0.5099999904632569</v>
       </c>
-      <c r="E29" t="n">
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Las Vegas</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>29085</v>
+      </c>
+      <c r="U29" t="n">
+        <v>30111</v>
+      </c>
+      <c r="V29" t="n">
+        <v>28892</v>
+      </c>
+      <c r="W29" t="n">
+        <v>30901</v>
+      </c>
+      <c r="X29" t="n">
+        <v>35167</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>35954</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>37577</v>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Las Vegas, NV</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>5383152</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>19722</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.003663653</v>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Las Vegas, NV</t>
+        </is>
+      </c>
+      <c r="AF29" t="n">
+        <v>2669</v>
+      </c>
+      <c r="AG29" t="n">
         <v>3.597</v>
       </c>
-      <c r="F29" t="n">
+      <c r="AH29" t="n">
         <v>50880</v>
       </c>
-      <c r="G29" t="n">
-        <v>12725.38174983788</v>
+      <c r="AI29" t="n">
+        <v>7904.461233472575</v>
       </c>
     </row>
     <row r="30">
@@ -1180,19 +3940,113 @@
         <v>182580</v>
       </c>
       <c r="C30" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D30" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>122510</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G30" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="H30" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="I30" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="J30" t="n">
+        <v>76.77</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>59130</v>
+      </c>
+      <c r="M30" t="n">
+        <v>79910</v>
+      </c>
+      <c r="N30" t="n">
+        <v>119920</v>
+      </c>
+      <c r="O30" t="n">
+        <v>159690</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>190900</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>29.5179996490479</v>
       </c>
-      <c r="D30" t="n">
+      <c r="R30" t="n">
         <v>0.870000004768372</v>
       </c>
-      <c r="E30" t="n">
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>365877</v>
+      </c>
+      <c r="U30" t="n">
+        <v>372869</v>
+      </c>
+      <c r="V30" t="n">
+        <v>366033</v>
+      </c>
+      <c r="W30" t="n">
+        <v>368539</v>
+      </c>
+      <c r="X30" t="n">
+        <v>376955</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>375831</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>378427</v>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>8556404</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10407</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.001216282</v>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="AF30" t="n">
+        <v>1570</v>
+      </c>
+      <c r="AG30" t="n">
         <v>0.448</v>
       </c>
-      <c r="F30" t="n">
+      <c r="AH30" t="n">
         <v>69520</v>
       </c>
-      <c r="G30" t="n">
-        <v>17387.66549991322</v>
+      <c r="AI30" t="n">
+        <v>10592.68777828502</v>
       </c>
     </row>
     <row r="31">
@@ -1205,19 +4059,113 @@
         <v>12610</v>
       </c>
       <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92240</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="I31" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="J31" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>45780</v>
+      </c>
+      <c r="M31" t="n">
+        <v>59420</v>
+      </c>
+      <c r="N31" t="n">
+        <v>83990</v>
+      </c>
+      <c r="O31" t="n">
+        <v>118360</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>152900</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
         <v>20.1639995574951</v>
       </c>
-      <c r="D31" t="n">
+      <c r="R31" t="n">
         <v>0.589999973773956</v>
       </c>
-      <c r="E31" t="n">
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>18283</v>
+      </c>
+      <c r="U31" t="n">
+        <v>18590</v>
+      </c>
+      <c r="V31" t="n">
+        <v>19173</v>
+      </c>
+      <c r="W31" t="n">
+        <v>19669</v>
+      </c>
+      <c r="X31" t="n">
+        <v>21009</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>21045</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>21450</v>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Memphis, TN</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>633104</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>Memphis, TN</t>
+        </is>
+      </c>
+      <c r="AF31" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG31" t="n">
         <v>2.373</v>
       </c>
-      <c r="F31" t="n">
+      <c r="AH31" t="n">
         <v>52600</v>
       </c>
-      <c r="G31" t="n">
-        <v>13155.75224988413</v>
+      <c r="AI31" t="n">
+        <v>7915.870282562129</v>
       </c>
     </row>
     <row r="32">
@@ -1230,19 +4178,113 @@
         <v>68660</v>
       </c>
       <c r="C32" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="D32" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="E32" t="n">
+        <v>102000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="H32" t="n">
+        <v>31</v>
+      </c>
+      <c r="I32" t="n">
+        <v>45.28</v>
+      </c>
+      <c r="J32" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>47710</v>
+      </c>
+      <c r="M32" t="n">
+        <v>64470</v>
+      </c>
+      <c r="N32" t="n">
+        <v>94170</v>
+      </c>
+      <c r="O32" t="n">
+        <v>131370</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>164190</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
         <v>25.2299995422363</v>
       </c>
-      <c r="D32" t="n">
+      <c r="R32" t="n">
         <v>0.7400000095367431</v>
       </c>
-      <c r="E32" t="n">
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>113398</v>
+      </c>
+      <c r="U32" t="n">
+        <v>116927</v>
+      </c>
+      <c r="V32" t="n">
+        <v>116436</v>
+      </c>
+      <c r="W32" t="n">
+        <v>122059</v>
+      </c>
+      <c r="X32" t="n">
+        <v>132847</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>135965</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>139644</v>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>841971</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7466</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.008867289</v>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="AF32" t="n">
+        <v>1873</v>
+      </c>
+      <c r="AG32" t="n">
         <v>3.071</v>
       </c>
-      <c r="F32" t="n">
+      <c r="AH32" t="n">
         <v>56090</v>
       </c>
-      <c r="G32" t="n">
-        <v>14029.72324988747</v>
+      <c r="AI32" t="n">
+        <v>8608.175913158566</v>
       </c>
     </row>
     <row r="33">
@@ -1255,19 +4297,113 @@
         <v>25060</v>
       </c>
       <c r="C33" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46.66</v>
+      </c>
+      <c r="E33" t="n">
+        <v>97060</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="H33" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="I33" t="n">
+        <v>43.66</v>
+      </c>
+      <c r="J33" t="n">
+        <v>57.17</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>52280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>66780</v>
+      </c>
+      <c r="N33" t="n">
+        <v>90810</v>
+      </c>
+      <c r="O33" t="n">
+        <v>118900</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>144730</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
         <v>30.7450008392334</v>
       </c>
-      <c r="D33" t="n">
+      <c r="R33" t="n">
         <v>0.899999976158142</v>
       </c>
-      <c r="E33" t="n">
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>46989</v>
+      </c>
+      <c r="U33" t="n">
+        <v>46553</v>
+      </c>
+      <c r="V33" t="n">
+        <v>44925</v>
+      </c>
+      <c r="W33" t="n">
+        <v>44842</v>
+      </c>
+      <c r="X33" t="n">
+        <v>44916</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>44349</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>44084</v>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Milwaukee, WI</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>6780886</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>17396</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.002565446</v>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>Milwaukee, WI</t>
+        </is>
+      </c>
+      <c r="AF33" t="n">
+        <v>2916</v>
+      </c>
+      <c r="AG33" t="n">
         <v>-0.959</v>
       </c>
-      <c r="F33" t="n">
+      <c r="AH33" t="n">
         <v>59530</v>
       </c>
-      <c r="G33" t="n">
-        <v>14890.12650020504</v>
+      <c r="AI33" t="n">
+        <v>9228.678293660441</v>
       </c>
     </row>
     <row r="34">
@@ -1280,19 +4416,113 @@
         <v>78370</v>
       </c>
       <c r="C34" t="n">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="D34" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="E34" t="n">
+        <v>108800</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G34" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="H34" t="n">
+        <v>38.43</v>
+      </c>
+      <c r="I34" t="n">
+        <v>50.45</v>
+      </c>
+      <c r="J34" t="n">
+        <v>64.02</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>60920</v>
+      </c>
+      <c r="M34" t="n">
+        <v>79930</v>
+      </c>
+      <c r="N34" t="n">
+        <v>104930</v>
+      </c>
+      <c r="O34" t="n">
+        <v>133150</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>162540</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
         <v>41.007999420166</v>
       </c>
-      <c r="D34" t="n">
+      <c r="R34" t="n">
         <v>1.20000004768372</v>
       </c>
-      <c r="E34" t="n">
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Minneapolis</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>149976</v>
+      </c>
+      <c r="U34" t="n">
+        <v>150130</v>
+      </c>
+      <c r="V34" t="n">
+        <v>147778</v>
+      </c>
+      <c r="W34" t="n">
+        <v>146168</v>
+      </c>
+      <c r="X34" t="n">
+        <v>146623</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>147088</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>148204</v>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Minneapolis, MN</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>5996594</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4965</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.00082797</v>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Minneapolis, MN</t>
+        </is>
+      </c>
+      <c r="AF34" t="n">
+        <v>2365</v>
+      </c>
+      <c r="AG34" t="n">
         <v>-0.324</v>
       </c>
-      <c r="F34" t="n">
+      <c r="AH34" t="n">
         <v>70425</v>
       </c>
-      <c r="G34" t="n">
-        <v>17616.66099986458</v>
+      <c r="AI34" t="n">
+        <v>10810.64471706758</v>
       </c>
     </row>
     <row r="35">
@@ -1305,19 +4535,113 @@
         <v>33800</v>
       </c>
       <c r="C35" t="n">
+        <v>2.70000004768372</v>
+      </c>
+      <c r="D35" t="n">
+        <v>45.21</v>
+      </c>
+      <c r="E35" t="n">
+        <v>94040</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.60000002384186</v>
+      </c>
+      <c r="G35" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="H35" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="I35" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="J35" t="n">
+        <v>58.52</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>48220</v>
+      </c>
+      <c r="M35" t="n">
+        <v>63050</v>
+      </c>
+      <c r="N35" t="n">
+        <v>87290</v>
+      </c>
+      <c r="O35" t="n">
+        <v>121720</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>139340</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
         <v>31.4489994049072</v>
       </c>
-      <c r="D35" t="n">
+      <c r="R35" t="n">
         <v>0.920000016689301</v>
       </c>
-      <c r="E35" t="n">
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Nashville</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>45996</v>
+      </c>
+      <c r="U35" t="n">
+        <v>48578</v>
+      </c>
+      <c r="V35" t="n">
+        <v>50643</v>
+      </c>
+      <c r="W35" t="n">
+        <v>51876</v>
+      </c>
+      <c r="X35" t="n">
+        <v>58546</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>60502</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>63391</v>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Nashville, TN</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>4428727</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8487</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.001916352</v>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>Nashville, TN</t>
+        </is>
+      </c>
+      <c r="AF35" t="n">
+        <v>552</v>
+      </c>
+      <c r="AG35" t="n">
         <v>4.675</v>
       </c>
-      <c r="F35" t="n">
+      <c r="AH35" t="n">
         <v>55635</v>
       </c>
-      <c r="G35" t="n">
-        <v>13917.96499985456</v>
+      <c r="AI35" t="n">
+        <v>8409.898558219365</v>
       </c>
     </row>
     <row r="36">
@@ -1330,19 +4654,113 @@
         <v>7880</v>
       </c>
       <c r="C36" t="n">
+        <v>4.09999990463257</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>104700</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.40000009536743</v>
+      </c>
+      <c r="G36" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="H36" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="I36" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="J36" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>68.25</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>46110</v>
+      </c>
+      <c r="M36" t="n">
+        <v>63040</v>
+      </c>
+      <c r="N36" t="n">
+        <v>86590</v>
+      </c>
+      <c r="O36" t="n">
+        <v>114900</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>141960</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
         <v>15.3159999847412</v>
       </c>
-      <c r="D36" t="n">
+      <c r="R36" t="n">
         <v>0.449999988079071</v>
       </c>
-      <c r="E36" t="n">
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>14780</v>
+      </c>
+      <c r="U36" t="n">
+        <v>15501</v>
+      </c>
+      <c r="V36" t="n">
+        <v>15709</v>
+      </c>
+      <c r="W36" t="n">
+        <v>15968</v>
+      </c>
+      <c r="X36" t="n">
+        <v>17456</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17760</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>18261</v>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>New Orleans, LA</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>390144</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2408</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>New Orleans, LA</t>
+        </is>
+      </c>
+      <c r="AF36" t="n">
+        <v>343</v>
+      </c>
+      <c r="AG36" t="n">
         <v>3.109</v>
       </c>
-      <c r="F36" t="n">
+      <c r="AH36" t="n">
         <v>54575</v>
       </c>
-      <c r="G36" t="n">
-        <v>13648.4462499938</v>
+      <c r="AI36" t="n">
+        <v>8225.4010826718</v>
       </c>
     </row>
     <row r="37">
@@ -1355,19 +4773,113 @@
         <v>327120</v>
       </c>
       <c r="C37" t="n">
+        <v>1.79999995231628</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62.74</v>
+      </c>
+      <c r="E37" t="n">
+        <v>130500</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G37" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="H37" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="I37" t="n">
+        <v>61.04</v>
+      </c>
+      <c r="J37" t="n">
+        <v>80.37</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>61730</v>
+      </c>
+      <c r="M37" t="n">
+        <v>87130</v>
+      </c>
+      <c r="N37" t="n">
+        <v>126960</v>
+      </c>
+      <c r="O37" t="n">
+        <v>167160</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>205980</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>34.451000213623</v>
       </c>
-      <c r="D37" t="n">
+      <c r="R37" t="n">
         <v>1.00999999046326</v>
       </c>
-      <c r="E37" t="n">
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>533740</v>
+      </c>
+      <c r="U37" t="n">
+        <v>545154</v>
+      </c>
+      <c r="V37" t="n">
+        <v>542142</v>
+      </c>
+      <c r="W37" t="n">
+        <v>549565</v>
+      </c>
+      <c r="X37" t="n">
+        <v>585879</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>594191</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>613861</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>New York City, NY</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
+        <v>3554473</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>13903</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.00391141</v>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>New York City, NY</t>
+        </is>
+      </c>
+      <c r="AF37" t="n">
+        <v>1241</v>
+      </c>
+      <c r="AG37" t="n">
         <v>1.804</v>
       </c>
-      <c r="F37" t="n">
+      <c r="AH37" t="n">
         <v>74430</v>
       </c>
-      <c r="G37" t="n">
-        <v>18616.7657500515</v>
+      <c r="AI37" t="n">
+        <v>11297.9555589105</v>
       </c>
     </row>
     <row r="38">
@@ -1380,19 +4892,113 @@
         <v>18920</v>
       </c>
       <c r="C38" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="E38" t="n">
+        <v>90200</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="G38" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="H38" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>39.18</v>
+      </c>
+      <c r="J38" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>45650</v>
+      </c>
+      <c r="M38" t="n">
+        <v>59490</v>
+      </c>
+      <c r="N38" t="n">
+        <v>81490</v>
+      </c>
+      <c r="O38" t="n">
+        <v>111890</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>150230</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>28.806999206543</v>
       </c>
-      <c r="D38" t="n">
+      <c r="R38" t="n">
         <v>0.839999973773956</v>
       </c>
-      <c r="E38" t="n">
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Oklahoma City</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>25019</v>
+      </c>
+      <c r="U38" t="n">
+        <v>25137</v>
+      </c>
+      <c r="V38" t="n">
+        <v>25355</v>
+      </c>
+      <c r="W38" t="n">
+        <v>25603</v>
+      </c>
+      <c r="X38" t="n">
+        <v>27311</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>28211</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>28722</v>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK</t>
+        </is>
+      </c>
+      <c r="AB38" t="n">
+        <v>655057</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>4044</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG38" t="n">
         <v>2.021</v>
       </c>
-      <c r="F38" t="n">
+      <c r="AH38" t="n">
         <v>52570</v>
       </c>
-      <c r="G38" t="n">
-        <v>13150.37499979639</v>
+      <c r="AI38" t="n">
+        <v>7900.575432474391</v>
       </c>
     </row>
     <row r="39">
@@ -1405,19 +5011,113 @@
         <v>19190</v>
       </c>
       <c r="C39" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="D39" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97350</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="H39" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="I39" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="J39" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>66.95</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>52080</v>
+      </c>
+      <c r="M39" t="n">
+        <v>68610</v>
+      </c>
+      <c r="N39" t="n">
+        <v>96470</v>
+      </c>
+      <c r="O39" t="n">
+        <v>124740</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>139260</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>39.6529998779297</v>
       </c>
-      <c r="D39" t="n">
+      <c r="R39" t="n">
         <v>1.1599999666214</v>
       </c>
-      <c r="E39" t="n">
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Omaha</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>30780</v>
+      </c>
+      <c r="U39" t="n">
+        <v>30956</v>
+      </c>
+      <c r="V39" t="n">
+        <v>31357</v>
+      </c>
+      <c r="W39" t="n">
+        <v>31767</v>
+      </c>
+      <c r="X39" t="n">
+        <v>31676</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>31085</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>31174</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Omaha, NE</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>2319042</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>17443</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.00752164</v>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Omaha, NE</t>
+        </is>
+      </c>
+      <c r="AF39" t="n">
+        <v>2939</v>
+      </c>
+      <c r="AG39" t="n">
         <v>0.164</v>
       </c>
-      <c r="F39" t="n">
+      <c r="AH39" t="n">
         <v>60345</v>
       </c>
-      <c r="G39" t="n">
-        <v>15096.43624996281</v>
+      <c r="AI39" t="n">
+        <v>9355.843697798806</v>
       </c>
     </row>
     <row r="40">
@@ -1430,19 +5130,113 @@
         <v>40250</v>
       </c>
       <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100400</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="G40" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="H40" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="I40" t="n">
+        <v>46.47</v>
+      </c>
+      <c r="J40" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>47870</v>
+      </c>
+      <c r="M40" t="n">
+        <v>65530</v>
+      </c>
+      <c r="N40" t="n">
+        <v>96650</v>
+      </c>
+      <c r="O40" t="n">
+        <v>127100</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>161090</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>29.451000213623</v>
       </c>
-      <c r="D40" t="n">
+      <c r="R40" t="n">
         <v>0.860000014305115</v>
       </c>
-      <c r="E40" t="n">
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>64416</v>
+      </c>
+      <c r="U40" t="n">
+        <v>65592</v>
+      </c>
+      <c r="V40" t="n">
+        <v>65152</v>
+      </c>
+      <c r="W40" t="n">
+        <v>67509</v>
+      </c>
+      <c r="X40" t="n">
+        <v>71942</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>73922</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>76085</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
+        <v>4174499</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7299</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.001748473</v>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="AF40" t="n">
+        <v>1327</v>
+      </c>
+      <c r="AG40" t="n">
         <v>2.321</v>
       </c>
-      <c r="F40" t="n">
+      <c r="AH40" t="n">
         <v>56700</v>
       </c>
-      <c r="G40" t="n">
-        <v>14183.11500005627</v>
+      <c r="AI40" t="n">
+        <v>8645.930875208967</v>
       </c>
     </row>
     <row r="41">
@@ -1455,19 +5249,113 @@
         <v>88650</v>
       </c>
       <c r="C41" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52.15</v>
+      </c>
+      <c r="E41" t="n">
+        <v>108470</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G41" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="H41" t="n">
+        <v>35.97</v>
+      </c>
+      <c r="I41" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="J41" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>54740</v>
+      </c>
+      <c r="M41" t="n">
+        <v>74820</v>
+      </c>
+      <c r="N41" t="n">
+        <v>102840</v>
+      </c>
+      <c r="O41" t="n">
+        <v>135150</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>164790</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
         <v>31.3299999237061</v>
       </c>
-      <c r="D41" t="n">
+      <c r="R41" t="n">
         <v>0.920000016689301</v>
       </c>
-      <c r="E41" t="n">
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>155318</v>
+      </c>
+      <c r="U41" t="n">
+        <v>158092</v>
+      </c>
+      <c r="V41" t="n">
+        <v>157334</v>
+      </c>
+      <c r="W41" t="n">
+        <v>154522</v>
+      </c>
+      <c r="X41" t="n">
+        <v>158476</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>157986</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>159251</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Philadelphia, PA</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
+        <v>1629159</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>16479</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.010115035</v>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>Philadelphia, PA</t>
+        </is>
+      </c>
+      <c r="AF41" t="n">
+        <v>2844</v>
+      </c>
+      <c r="AG41" t="n">
         <v>0.284</v>
       </c>
-      <c r="F41" t="n">
+      <c r="AH41" t="n">
         <v>64780</v>
       </c>
-      <c r="G41" t="n">
-        <v>16203.08749998426</v>
+      <c r="AI41" t="n">
+        <v>10009.50068848076</v>
       </c>
     </row>
     <row r="42">
@@ -1480,19 +5368,113 @@
         <v>86700</v>
       </c>
       <c r="C42" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D42" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="E42" t="n">
+        <v>106240</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="H42" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="I42" t="n">
+        <v>48.91</v>
+      </c>
+      <c r="J42" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>50150</v>
+      </c>
+      <c r="M42" t="n">
+        <v>69540</v>
+      </c>
+      <c r="N42" t="n">
+        <v>101730</v>
+      </c>
+      <c r="O42" t="n">
+        <v>132280</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>164220</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>37.8759994506836</v>
       </c>
-      <c r="D42" t="n">
+      <c r="R42" t="n">
         <v>1.11000001430511</v>
       </c>
-      <c r="E42" t="n">
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>145009</v>
+      </c>
+      <c r="U42" t="n">
+        <v>151289</v>
+      </c>
+      <c r="V42" t="n">
+        <v>156659</v>
+      </c>
+      <c r="W42" t="n">
+        <v>160193</v>
+      </c>
+      <c r="X42" t="n">
+        <v>168018</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>168694</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>172709</v>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Phoenix, AZ</t>
+        </is>
+      </c>
+      <c r="AB42" t="n">
+        <v>5156799</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>17519</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.003397263</v>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Phoenix, AZ</t>
+        </is>
+      </c>
+      <c r="AF42" t="n">
+        <v>2621</v>
+      </c>
+      <c r="AG42" t="n">
         <v>2.554</v>
       </c>
-      <c r="F42" t="n">
+      <c r="AH42" t="n">
         <v>59845</v>
       </c>
-      <c r="G42" t="n">
-        <v>14971.57949986553</v>
+      <c r="AI42" t="n">
+        <v>9249.306860139232</v>
       </c>
     </row>
     <row r="43">
@@ -1505,19 +5487,113 @@
         <v>30760</v>
       </c>
       <c r="C43" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D43" t="n">
+        <v>45.54</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94730</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="H43" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="I43" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>58.37</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>47470</v>
+      </c>
+      <c r="M43" t="n">
+        <v>63320</v>
+      </c>
+      <c r="N43" t="n">
+        <v>85680</v>
+      </c>
+      <c r="O43" t="n">
+        <v>121410</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>145320</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
         <v>28.6979999542236</v>
       </c>
-      <c r="D43" t="n">
+      <c r="R43" t="n">
         <v>0.839999973773956</v>
       </c>
-      <c r="E43" t="n">
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>62564</v>
+      </c>
+      <c r="U43" t="n">
+        <v>62640</v>
+      </c>
+      <c r="V43" t="n">
+        <v>60803</v>
+      </c>
+      <c r="W43" t="n">
+        <v>59768</v>
+      </c>
+      <c r="X43" t="n">
+        <v>58860</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>58646</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>58884</v>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Pittsburgh, PA</t>
+        </is>
+      </c>
+      <c r="AB43" t="n">
+        <v>6091495</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.000225889</v>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>Pittsburgh, PA</t>
+        </is>
+      </c>
+      <c r="AF43" t="n">
+        <v>1192</v>
+      </c>
+      <c r="AG43" t="n">
         <v>-1.072</v>
       </c>
-      <c r="F43" t="n">
+      <c r="AH43" t="n">
         <v>55395</v>
       </c>
-      <c r="G43" t="n">
-        <v>13855.82449998331</v>
+      <c r="AI43" t="n">
+        <v>8435.470877394411</v>
       </c>
     </row>
     <row r="44">
@@ -1530,19 +5606,113 @@
         <v>6740</v>
       </c>
       <c r="C44" t="n">
+        <v>2.40000009536743</v>
+      </c>
+      <c r="D44" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="E44" t="n">
+        <v>95170</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="H44" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="I44" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="J44" t="n">
+        <v>55.09</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>54810</v>
+      </c>
+      <c r="M44" t="n">
+        <v>66680</v>
+      </c>
+      <c r="N44" t="n">
+        <v>86840</v>
+      </c>
+      <c r="O44" t="n">
+        <v>114580</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>146280</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
         <v>32.5460014343262</v>
       </c>
-      <c r="D44" t="n">
+      <c r="R44" t="n">
         <v>0.949999988079071</v>
       </c>
-      <c r="E44" t="n">
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>106453</v>
+      </c>
+      <c r="U44" t="n">
+        <v>109613</v>
+      </c>
+      <c r="V44" t="n">
+        <v>110652</v>
+      </c>
+      <c r="W44" t="n">
+        <v>114225</v>
+      </c>
+      <c r="X44" t="n">
+        <v>119784</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>120406</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>123486</v>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="AB44" t="n">
+        <v>551157</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7579</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.013751073</v>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="AF44" t="n">
+        <v>1057</v>
+      </c>
+      <c r="AG44" t="n">
         <v>2.074</v>
       </c>
-      <c r="F44" t="n">
+      <c r="AH44" t="n">
         <v>60745</v>
       </c>
-      <c r="G44" t="n">
-        <v>15195.0950003562</v>
+      <c r="AI44" t="n">
+        <v>9226.397325248898</v>
       </c>
     </row>
     <row r="45">
@@ -1555,19 +5725,113 @@
         <v>47220</v>
       </c>
       <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="E45" t="n">
+        <v>114550</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="H45" t="n">
+        <v>37.76</v>
+      </c>
+      <c r="I45" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="J45" t="n">
+        <v>68.45</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>58500</v>
+      </c>
+      <c r="M45" t="n">
+        <v>78540</v>
+      </c>
+      <c r="N45" t="n">
+        <v>108280</v>
+      </c>
+      <c r="O45" t="n">
+        <v>142370</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>171840</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
         <v>39.1479988098145</v>
       </c>
-      <c r="D45" t="n">
+      <c r="R45" t="n">
         <v>1.14999997615814</v>
       </c>
-      <c r="E45" t="n">
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>106453</v>
+      </c>
+      <c r="U45" t="n">
+        <v>109613</v>
+      </c>
+      <c r="V45" t="n">
+        <v>110652</v>
+      </c>
+      <c r="W45" t="n">
+        <v>114225</v>
+      </c>
+      <c r="X45" t="n">
+        <v>119784</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>120406</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>123486</v>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="AB45" t="n">
+        <v>551157</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7579</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.013751073</v>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="AF45" t="n">
+        <v>1057</v>
+      </c>
+      <c r="AG45" t="n">
         <v>2.074</v>
       </c>
-      <c r="F45" t="n">
+      <c r="AH45" t="n">
         <v>68520</v>
       </c>
-      <c r="G45" t="n">
-        <v>17140.53549969769</v>
+      <c r="AI45" t="n">
+        <v>10394.33782459039</v>
       </c>
     </row>
     <row r="46">
@@ -1580,19 +5844,113 @@
         <v>16970</v>
       </c>
       <c r="C46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>52.89</v>
+      </c>
+      <c r="E46" t="n">
+        <v>110020</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.89999997615814</v>
+      </c>
+      <c r="G46" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="H46" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="I46" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>65.88</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>57870</v>
+      </c>
+      <c r="M46" t="n">
+        <v>78240</v>
+      </c>
+      <c r="N46" t="n">
+        <v>105360</v>
+      </c>
+      <c r="O46" t="n">
+        <v>137030</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>164220</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
         <v>29.7980003356934</v>
       </c>
-      <c r="D46" t="n">
+      <c r="R46" t="n">
         <v>0.870000004768372</v>
       </c>
-      <c r="E46" t="n">
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Providence</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>32380</v>
+      </c>
+      <c r="U46" t="n">
+        <v>32648</v>
+      </c>
+      <c r="V46" t="n">
+        <v>31776</v>
+      </c>
+      <c r="W46" t="n">
+        <v>32783</v>
+      </c>
+      <c r="X46" t="n">
+        <v>33824</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>34024</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>34627</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Providence, RI</t>
+        </is>
+      </c>
+      <c r="AB46" t="n">
+        <v>8220528</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8305</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.001010276</v>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>Providence, RI</t>
+        </is>
+      </c>
+      <c r="AF46" t="n">
+        <v>1448</v>
+      </c>
+      <c r="AG46" t="n">
         <v>0.829</v>
       </c>
-      <c r="F46" t="n">
+      <c r="AH46" t="n">
         <v>68055</v>
       </c>
-      <c r="G46" t="n">
-        <v>17021.58075008488</v>
+      <c r="AI46" t="n">
+        <v>10360.92209905728</v>
       </c>
     </row>
     <row r="47">
@@ -1605,19 +5963,113 @@
         <v>41180</v>
       </c>
       <c r="C47" t="n">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="D47" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="E47" t="n">
+        <v>114870</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="H47" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="I47" t="n">
+        <v>52.92</v>
+      </c>
+      <c r="J47" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>82.2</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>59050</v>
+      </c>
+      <c r="M47" t="n">
+        <v>81260</v>
+      </c>
+      <c r="N47" t="n">
+        <v>110070</v>
+      </c>
+      <c r="O47" t="n">
+        <v>137320</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>170980</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
         <v>58.6139984130859</v>
       </c>
-      <c r="D47" t="n">
+      <c r="R47" t="n">
         <v>1.72000002861023</v>
       </c>
-      <c r="E47" t="n">
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Raleigh</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>70469</v>
+      </c>
+      <c r="U47" t="n">
+        <v>72432</v>
+      </c>
+      <c r="V47" t="n">
+        <v>67960</v>
+      </c>
+      <c r="W47" t="n">
+        <v>70221</v>
+      </c>
+      <c r="X47" t="n">
+        <v>73624</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>75041</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>77377</v>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Raleigh, NC</t>
+        </is>
+      </c>
+      <c r="AB47" t="n">
+        <v>8817088</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>4642</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.000526478</v>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>Raleigh, NC</t>
+        </is>
+      </c>
+      <c r="AF47" t="n">
+        <v>1108</v>
+      </c>
+      <c r="AG47" t="n">
         <v>1.053</v>
       </c>
-      <c r="F47" t="n">
+      <c r="AH47" t="n">
         <v>70155</v>
       </c>
-      <c r="G47" t="n">
-        <v>17554.01074960899</v>
+      <c r="AI47" t="n">
+        <v>10649.36334696119</v>
       </c>
     </row>
     <row r="48">
@@ -1630,19 +6082,113 @@
         <v>45060</v>
       </c>
       <c r="C48" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>104420</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G48" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="H48" t="n">
+        <v>36.24</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46.08</v>
+      </c>
+      <c r="J48" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>65160</v>
+      </c>
+      <c r="M48" t="n">
+        <v>75380</v>
+      </c>
+      <c r="N48" t="n">
+        <v>95850</v>
+      </c>
+      <c r="O48" t="n">
+        <v>125130</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>162000</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
         <v>42.9900016784668</v>
       </c>
-      <c r="D48" t="n">
+      <c r="R48" t="n">
         <v>1.25999999046326</v>
       </c>
-      <c r="E48" t="n">
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>53849</v>
+      </c>
+      <c r="U48" t="n">
+        <v>55444</v>
+      </c>
+      <c r="V48" t="n">
+        <v>54677</v>
+      </c>
+      <c r="W48" t="n">
+        <v>54954</v>
+      </c>
+      <c r="X48" t="n">
+        <v>55669</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>55368</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>55709</v>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Sacramento, CA</t>
+        </is>
+      </c>
+      <c r="AB48" t="n">
+        <v>1757923</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9704</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.005520151</v>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Sacramento, CA</t>
+        </is>
+      </c>
+      <c r="AF48" t="n">
+        <v>2909</v>
+      </c>
+      <c r="AG48" t="n">
         <v>0.465</v>
       </c>
-      <c r="F48" t="n">
+      <c r="AH48" t="n">
         <v>70270</v>
       </c>
-      <c r="G48" t="n">
-        <v>17578.61575041771</v>
+      <c r="AI48" t="n">
+        <v>10842.53844840261</v>
       </c>
     </row>
     <row r="49">
@@ -1655,19 +6201,113 @@
         <v>37850</v>
       </c>
       <c r="C49" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="D49" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="G49" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="H49" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="I49" t="n">
+        <v>47.64</v>
+      </c>
+      <c r="J49" t="n">
+        <v>64.45999999999999</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>49170</v>
+      </c>
+      <c r="M49" t="n">
+        <v>68830</v>
+      </c>
+      <c r="N49" t="n">
+        <v>99090</v>
+      </c>
+      <c r="O49" t="n">
+        <v>134090</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>164990</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>47.0839996337891</v>
       </c>
-      <c r="D49" t="n">
+      <c r="R49" t="n">
         <v>1.37999999523163</v>
       </c>
-      <c r="E49" t="n">
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Salt Lake City</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>56440</v>
+      </c>
+      <c r="U49" t="n">
+        <v>59834</v>
+      </c>
+      <c r="V49" t="n">
+        <v>61401</v>
+      </c>
+      <c r="W49" t="n">
+        <v>64614</v>
+      </c>
+      <c r="X49" t="n">
+        <v>69272</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>69826</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>73038</v>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT</t>
+        </is>
+      </c>
+      <c r="AB49" t="n">
+        <v>2954941</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>17714</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.005994705</v>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT</t>
+        </is>
+      </c>
+      <c r="AF49" t="n">
+        <v>1735</v>
+      </c>
+      <c r="AG49" t="n">
         <v>3.611</v>
       </c>
-      <c r="F49" t="n">
+      <c r="AH49" t="n">
         <v>59000</v>
       </c>
-      <c r="G49" t="n">
-        <v>14762.94974990749</v>
+      <c r="AI49" t="n">
+        <v>9036.629700436994</v>
       </c>
     </row>
     <row r="50">
@@ -1680,19 +6320,113 @@
         <v>30740</v>
       </c>
       <c r="C50" t="n">
+        <v>1.89999997615814</v>
+      </c>
+      <c r="D50" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="E50" t="n">
+        <v>98830</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="I50" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="J50" t="n">
+        <v>61.02</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>75.02</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>47830</v>
+      </c>
+      <c r="M50" t="n">
+        <v>64050</v>
+      </c>
+      <c r="N50" t="n">
+        <v>95080</v>
+      </c>
+      <c r="O50" t="n">
+        <v>126910</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>156040</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>28.1609992980957</v>
       </c>
-      <c r="D50" t="n">
+      <c r="R50" t="n">
         <v>0.829999983310699</v>
       </c>
-      <c r="E50" t="n">
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>47249</v>
+      </c>
+      <c r="U50" t="n">
+        <v>48909</v>
+      </c>
+      <c r="V50" t="n">
+        <v>49618</v>
+      </c>
+      <c r="W50" t="n">
+        <v>50578</v>
+      </c>
+      <c r="X50" t="n">
+        <v>52728</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>53290</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>55069</v>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>San Antonio, TX</t>
+        </is>
+      </c>
+      <c r="AB50" t="n">
+        <v>668467</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>6449</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.009647447</v>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>San Antonio, TX</t>
+        </is>
+      </c>
+      <c r="AF50" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AG50" t="n">
         <v>2.026</v>
       </c>
-      <c r="F50" t="n">
+      <c r="AH50" t="n">
         <v>55940</v>
       </c>
-      <c r="G50" t="n">
-        <v>13992.71274982119</v>
+      <c r="AI50" t="n">
+        <v>8587.313085076486</v>
       </c>
     </row>
     <row r="51">
@@ -1705,19 +6439,113 @@
         <v>59340</v>
       </c>
       <c r="C51" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="D51" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>125010</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="G51" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="I51" t="n">
+        <v>59.06</v>
+      </c>
+      <c r="J51" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>91.7</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>60740</v>
+      </c>
+      <c r="M51" t="n">
+        <v>84630</v>
+      </c>
+      <c r="N51" t="n">
+        <v>122840</v>
+      </c>
+      <c r="O51" t="n">
+        <v>159720</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>190730</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
         <v>38.9749984741211</v>
       </c>
-      <c r="D51" t="n">
+      <c r="R51" t="n">
         <v>1.13999998569489</v>
       </c>
-      <c r="E51" t="n">
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>San Diego</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>112140</v>
+      </c>
+      <c r="U51" t="n">
+        <v>115797</v>
+      </c>
+      <c r="V51" t="n">
+        <v>115367</v>
+      </c>
+      <c r="W51" t="n">
+        <v>119129</v>
+      </c>
+      <c r="X51" t="n">
+        <v>121418</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>121128</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>123237</v>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>San Diego, CA</t>
+        </is>
+      </c>
+      <c r="AB51" t="n">
+        <v>6611000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2991</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.000452428</v>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>San Diego, CA</t>
+        </is>
+      </c>
+      <c r="AF51" t="n">
+        <v>2394</v>
+      </c>
+      <c r="AG51" t="n">
         <v>1.293</v>
       </c>
-      <c r="F51" t="n">
+      <c r="AH51" t="n">
         <v>72685</v>
       </c>
-      <c r="G51" t="n">
-        <v>18181.54499961567</v>
+      <c r="AI51" t="n">
+        <v>11152.50960437287</v>
       </c>
     </row>
     <row r="52">
@@ -1730,19 +6558,113 @@
         <v>181740</v>
       </c>
       <c r="C52" t="n">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="D52" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>158450</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G52" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="H52" t="n">
+        <v>56.45</v>
+      </c>
+      <c r="I52" t="n">
+        <v>78.79000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>106.54</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>77260</v>
+      </c>
+      <c r="M52" t="n">
+        <v>117420</v>
+      </c>
+      <c r="N52" t="n">
+        <v>163890</v>
+      </c>
+      <c r="O52" t="n">
+        <v>201980</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>221590</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
         <v>75.0329971313477</v>
       </c>
-      <c r="D52" t="n">
+      <c r="R52" t="n">
         <v>2.20000004768372</v>
       </c>
-      <c r="E52" t="n">
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>315488</v>
+      </c>
+      <c r="U52" t="n">
+        <v>334141</v>
+      </c>
+      <c r="V52" t="n">
+        <v>337971</v>
+      </c>
+      <c r="W52" t="n">
+        <v>345502</v>
+      </c>
+      <c r="X52" t="n">
+        <v>368407</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>365494</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>380190</v>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="AB52" t="n">
+        <v>7349695</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>13621</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.001853274</v>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="AF52" t="n">
+        <v>659</v>
+      </c>
+      <c r="AG52" t="n">
         <v>2.482</v>
       </c>
-      <c r="F52" t="n">
+      <c r="AH52" t="n">
         <v>97340</v>
       </c>
-      <c r="G52" t="n">
-        <v>24354.81874929238</v>
+      <c r="AI52" t="n">
+        <v>14686.84266396497</v>
       </c>
     </row>
     <row r="53">
@@ -1755,19 +6677,113 @@
         <v>161790</v>
       </c>
       <c r="C53" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="D53" t="n">
+        <v>88.68000000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>184460</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.400000005960465</v>
+      </c>
+      <c r="G53" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="H53" t="n">
+        <v>68.67</v>
+      </c>
+      <c r="I53" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="J53" t="n">
+        <v>101.87</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>(5) -</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>102710</v>
+      </c>
+      <c r="M53" t="n">
+        <v>142830</v>
+      </c>
+      <c r="N53" t="n">
+        <v>175110</v>
+      </c>
+      <c r="O53" t="n">
+        <v>211890</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>(5) -</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
         <v>141.697998046875</v>
       </c>
-      <c r="D53" t="n">
+      <c r="R53" t="n">
         <v>4.15999984741211</v>
       </c>
-      <c r="E53" t="n">
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>333891</v>
+      </c>
+      <c r="U53" t="n">
+        <v>348518</v>
+      </c>
+      <c r="V53" t="n">
+        <v>351523</v>
+      </c>
+      <c r="W53" t="n">
+        <v>352752</v>
+      </c>
+      <c r="X53" t="n">
+        <v>366574</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>364882</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>374138</v>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>San Jose, CA</t>
+        </is>
+      </c>
+      <c r="AB53" t="n">
+        <v>6721458</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>15828</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.002354846</v>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>San Jose, CA</t>
+        </is>
+      </c>
+      <c r="AF53" t="n">
+        <v>253</v>
+      </c>
+      <c r="AG53" t="n">
         <v>1.49</v>
       </c>
-      <c r="F53" t="n">
+      <c r="AH53" t="n">
         <v>122770</v>
       </c>
-      <c r="G53" t="n">
-        <v>30729.1289994812</v>
+      <c r="AI53" t="n">
+        <v>18477.5032639966</v>
       </c>
     </row>
     <row r="54">
@@ -1780,19 +6796,113 @@
         <v>171820</v>
       </c>
       <c r="C54" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="D54" t="n">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>144530</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G54" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="H54" t="n">
+        <v>48.59</v>
+      </c>
+      <c r="I54" t="n">
+        <v>67.68000000000001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>83.34999999999999</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>103.51</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>73880</v>
+      </c>
+      <c r="M54" t="n">
+        <v>101070</v>
+      </c>
+      <c r="N54" t="n">
+        <v>140760</v>
+      </c>
+      <c r="O54" t="n">
+        <v>173370</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>215290</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
         <v>82.6439971923828</v>
       </c>
-      <c r="D54" t="n">
+      <c r="R54" t="n">
         <v>2.42000007629395</v>
       </c>
-      <c r="E54" t="n">
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>248251</v>
+      </c>
+      <c r="U54" t="n">
+        <v>260871</v>
+      </c>
+      <c r="V54" t="n">
+        <v>266359</v>
+      </c>
+      <c r="W54" t="n">
+        <v>269109</v>
+      </c>
+      <c r="X54" t="n">
+        <v>288329</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>287621</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>298361</v>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="AB54" t="n">
+        <v>2522189</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>18032</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.007149345</v>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="AF54" t="n">
+        <v>803</v>
+      </c>
+      <c r="AG54" t="n">
         <v>2.484</v>
       </c>
-      <c r="F54" t="n">
+      <c r="AH54" t="n">
         <v>87475</v>
       </c>
-      <c r="G54" t="n">
-        <v>21890.51599931335</v>
+      <c r="AI54" t="n">
+        <v>13223.43948437885</v>
       </c>
     </row>
     <row r="55">
@@ -1805,19 +6915,113 @@
         <v>45330</v>
       </c>
       <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>45.35</v>
+      </c>
+      <c r="E55" t="n">
+        <v>94330</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="H55" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="I55" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="J55" t="n">
+        <v>59.78</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>71.46</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>46450</v>
+      </c>
+      <c r="M55" t="n">
+        <v>60050</v>
+      </c>
+      <c r="N55" t="n">
+        <v>88940</v>
+      </c>
+      <c r="O55" t="n">
+        <v>124330</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>148640</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
         <v>34.2019996643066</v>
       </c>
-      <c r="D55" t="n">
+      <c r="R55" t="n">
         <v>1</v>
       </c>
-      <c r="E55" t="n">
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>St. Louis</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>74122</v>
+      </c>
+      <c r="U55" t="n">
+        <v>75192</v>
+      </c>
+      <c r="V55" t="n">
+        <v>75731</v>
+      </c>
+      <c r="W55" t="n">
+        <v>75557</v>
+      </c>
+      <c r="X55" t="n">
+        <v>77818</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>78129</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>78905</v>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>St. Louis, MO</t>
+        </is>
+      </c>
+      <c r="AB55" t="n">
+        <v>2150021</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>14762</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.006865979</v>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>St. Louis, MO</t>
+        </is>
+      </c>
+      <c r="AF55" t="n">
+        <v>456</v>
+      </c>
+      <c r="AG55" t="n">
         <v>0.881</v>
       </c>
-      <c r="F55" t="n">
+      <c r="AH55" t="n">
         <v>53250</v>
       </c>
-      <c r="G55" t="n">
-        <v>13321.47074991608</v>
+      <c r="AI55" t="n">
+        <v>8042.114113318176</v>
       </c>
     </row>
     <row r="56">
@@ -1830,19 +7034,113 @@
         <v>11610</v>
       </c>
       <c r="C56" t="n">
+        <v>1.79999995231628</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54.43</v>
+      </c>
+      <c r="E56" t="n">
+        <v>113210</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="H56" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="I56" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="J56" t="n">
+        <v>66.38</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>60690</v>
+      </c>
+      <c r="M56" t="n">
+        <v>78800</v>
+      </c>
+      <c r="N56" t="n">
+        <v>104370</v>
+      </c>
+      <c r="O56" t="n">
+        <v>138070</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>167170</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
         <v>48.6839981079102</v>
       </c>
-      <c r="D56" t="n">
+      <c r="R56" t="n">
         <v>1.42999994754791</v>
       </c>
-      <c r="E56" t="n">
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Trenton</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>17137</v>
+      </c>
+      <c r="U56" t="n">
+        <v>17408</v>
+      </c>
+      <c r="V56" t="n">
+        <v>17474</v>
+      </c>
+      <c r="W56" t="n">
+        <v>17817</v>
+      </c>
+      <c r="X56" t="n">
+        <v>18658</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>18541</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>18764</v>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Trenton, NJ</t>
+        </is>
+      </c>
+      <c r="AB56" t="n">
+        <v>84907</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>524</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Trenton, NJ</t>
+        </is>
+      </c>
+      <c r="AF56" t="n">
+        <v>234</v>
+      </c>
+      <c r="AG56" t="n">
         <v>1.321</v>
       </c>
-      <c r="F56" t="n">
+      <c r="AH56" t="n">
         <v>69745</v>
       </c>
-      <c r="G56" t="n">
-        <v>17449.03724951649</v>
+      <c r="AI56" t="n">
+        <v>10498.00268219449</v>
       </c>
     </row>
     <row r="57">
@@ -1855,19 +7153,113 @@
         <v>239700</v>
       </c>
       <c r="C57" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D57" t="n">
+        <v>62.96</v>
+      </c>
+      <c r="E57" t="n">
+        <v>130950</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G57" t="n">
+        <v>33.89</v>
+      </c>
+      <c r="H57" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="I57" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>79.27</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>70490</v>
+      </c>
+      <c r="M57" t="n">
+        <v>96020</v>
+      </c>
+      <c r="N57" t="n">
+        <v>129790</v>
+      </c>
+      <c r="O57" t="n">
+        <v>164880</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>196440</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
         <v>77.5210037231445</v>
       </c>
-      <c r="D57" t="n">
+      <c r="R57" t="n">
         <v>2.26999998092651</v>
       </c>
-      <c r="E57" t="n">
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Washington DC</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>355920</v>
+      </c>
+      <c r="U57" t="n">
+        <v>363985</v>
+      </c>
+      <c r="V57" t="n">
+        <v>366221</v>
+      </c>
+      <c r="W57" t="n">
+        <v>367527</v>
+      </c>
+      <c r="X57" t="n">
+        <v>375358</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>376034</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>380232</v>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Washington DC, DC</t>
+        </is>
+      </c>
+      <c r="AB57" t="n">
+        <v>720687</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>4449</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Washington DC, DC</t>
+        </is>
+      </c>
+      <c r="AF57" t="n">
+        <v>899</v>
+      </c>
+      <c r="AG57" t="n">
         <v>0.92</v>
       </c>
-      <c r="F57" t="n">
+      <c r="AH57" t="n">
         <v>83255</v>
       </c>
-      <c r="G57" t="n">
-        <v>20833.81425092697</v>
+      <c r="AI57" t="n">
+        <v>12598.25963360497</v>
       </c>
     </row>
   </sheetData>

--- a/Tech_Hub.xlsx
+++ b/Tech_Hub.xlsx
@@ -726,7 +726,7 @@
         <v>53065</v>
       </c>
       <c r="AI2" t="n">
-        <v>7977.764682671324</v>
+        <v>7987.775782671325</v>
       </c>
     </row>
     <row r="3">
@@ -845,7 +845,7 @@
         <v>64890</v>
       </c>
       <c r="AI3" t="n">
-        <v>10038.56269753741</v>
+        <v>10332.41269753741</v>
       </c>
     </row>
     <row r="4">
@@ -964,7 +964,7 @@
         <v>61875</v>
       </c>
       <c r="AI4" t="n">
-        <v>9399.131668434029</v>
+        <v>9499.22306843403</v>
       </c>
     </row>
     <row r="5">
@@ -1083,7 +1083,7 @@
         <v>76300</v>
       </c>
       <c r="AI5" t="n">
-        <v>11643.48479394346</v>
+        <v>11829.25009394346</v>
       </c>
     </row>
     <row r="6">
@@ -1202,7 +1202,7 @@
         <v>54905</v>
       </c>
       <c r="AI6" t="n">
-        <v>8338.603980663416</v>
+        <v>8433.865880663416</v>
       </c>
     </row>
     <row r="7">
@@ -1321,7 +1321,7 @@
         <v>80095</v>
       </c>
       <c r="AI7" t="n">
-        <v>12158.23343117055</v>
+        <v>12289.47603117055</v>
       </c>
     </row>
     <row r="8">
@@ -1440,7 +1440,7 @@
         <v>57395</v>
       </c>
       <c r="AI8" t="n">
-        <v>8788.13578173385</v>
+        <v>8961.259381733851</v>
       </c>
     </row>
     <row r="9">
@@ -1559,7 +1559,7 @@
         <v>45425</v>
       </c>
       <c r="AI9" t="n">
-        <v>6864.100497084502</v>
+        <v>6907.775297084503</v>
       </c>
     </row>
     <row r="10">
@@ -1678,7 +1678,7 @@
         <v>60380</v>
       </c>
       <c r="AI10" t="n">
-        <v>9109.058747022991</v>
+        <v>9152.733547022992</v>
       </c>
     </row>
     <row r="11">
@@ -1797,7 +1797,7 @@
         <v>70565</v>
       </c>
       <c r="AI11" t="n">
-        <v>10821.31085321653</v>
+        <v>11045.63805321653</v>
       </c>
     </row>
     <row r="12">
@@ -1916,7 +1916,7 @@
         <v>66380</v>
       </c>
       <c r="AI12" t="n">
-        <v>10191.0128534292</v>
+        <v>10415.3400534292</v>
       </c>
     </row>
     <row r="13">
@@ -2035,7 +2035,7 @@
         <v>64625</v>
       </c>
       <c r="AI13" t="n">
-        <v>9769.075041180116</v>
+        <v>9837.073941180115</v>
       </c>
     </row>
     <row r="14">
@@ -2154,7 +2154,7 @@
         <v>44105</v>
       </c>
       <c r="AI14" t="n">
-        <v>6669.265782688491</v>
+        <v>6719.604082688491</v>
       </c>
     </row>
     <row r="15">
@@ -2273,7 +2273,7 @@
         <v>57600</v>
       </c>
       <c r="AI15" t="n">
-        <v>8697.630532728066</v>
+        <v>8747.968832728067</v>
       </c>
     </row>
     <row r="16">
@@ -2392,7 +2392,7 @@
         <v>72390</v>
       </c>
       <c r="AI16" t="n">
-        <v>11156.66947039288</v>
+        <v>11440.69187039289</v>
       </c>
     </row>
     <row r="17">
@@ -2511,7 +2511,7 @@
         <v>57650</v>
       </c>
       <c r="AI17" t="n">
-        <v>8720.962140761605</v>
+        <v>8785.955540761604</v>
       </c>
     </row>
     <row r="18">
@@ -2630,7 +2630,7 @@
         <v>54045</v>
       </c>
       <c r="AI18" t="n">
-        <v>8176.362140666237</v>
+        <v>8241.355540666238</v>
       </c>
     </row>
     <row r="19">
@@ -2749,7 +2749,7 @@
         <v>58965</v>
       </c>
       <c r="AI19" t="n">
-        <v>8918.97889047741</v>
+        <v>8983.97229047741</v>
       </c>
     </row>
     <row r="20">
@@ -2868,7 +2868,7 @@
         <v>64360</v>
       </c>
       <c r="AI20" t="n">
-        <v>9845.212544324091</v>
+        <v>10023.49674432409</v>
       </c>
     </row>
     <row r="21">
@@ -2987,7 +2987,7 @@
         <v>75145</v>
       </c>
       <c r="AI21" t="n">
-        <v>11420.86228053013</v>
+        <v>11555.40008053013</v>
       </c>
     </row>
     <row r="22">
@@ -3106,7 +3106,7 @@
         <v>61380</v>
       </c>
       <c r="AI22" t="n">
-        <v>9422.144891777023</v>
+        <v>9625.345591777022</v>
       </c>
     </row>
     <row r="23">
@@ -3225,7 +3225,7 @@
         <v>63195</v>
       </c>
       <c r="AI23" t="n">
-        <v>9628.943068540184</v>
+        <v>9770.115568540185</v>
       </c>
     </row>
     <row r="24">
@@ -3344,7 +3344,7 @@
         <v>70795</v>
       </c>
       <c r="AI24" t="n">
-        <v>10802.23943646056</v>
+        <v>10975.27443646056</v>
       </c>
     </row>
     <row r="25">
@@ -3463,7 +3463,7 @@
         <v>57265</v>
       </c>
       <c r="AI25" t="n">
-        <v>8707.126754537107</v>
+        <v>8816.974454537107</v>
       </c>
     </row>
     <row r="26">
@@ -3689,7 +3689,7 @@
         <v>57480</v>
       </c>
       <c r="AI27" t="n">
-        <v>8888.008531848744</v>
+        <v>9146.018731848742</v>
       </c>
     </row>
     <row r="28">
@@ -3808,7 +3808,7 @@
         <v>57705</v>
       </c>
       <c r="AI28" t="n">
-        <v>8854.543428038098</v>
+        <v>9042.775328038098</v>
       </c>
     </row>
     <row r="29">
@@ -3927,7 +3927,7 @@
         <v>50880</v>
       </c>
       <c r="AI29" t="n">
-        <v>7904.461233472575</v>
+        <v>8171.720933472576</v>
       </c>
     </row>
     <row r="30">
@@ -4046,7 +4046,7 @@
         <v>69520</v>
       </c>
       <c r="AI30" t="n">
-        <v>10592.68777828502</v>
+        <v>10749.73257828502</v>
       </c>
     </row>
     <row r="31">
@@ -4165,7 +4165,7 @@
         <v>52600</v>
       </c>
       <c r="AI31" t="n">
-        <v>7915.870282562129</v>
+        <v>7936.107582562128</v>
       </c>
     </row>
     <row r="32">
@@ -4284,7 +4284,7 @@
         <v>56090</v>
       </c>
       <c r="AI32" t="n">
-        <v>8608.175913158566</v>
+        <v>8795.783013158567</v>
       </c>
     </row>
     <row r="33">
@@ -4403,7 +4403,7 @@
         <v>59530</v>
       </c>
       <c r="AI33" t="n">
-        <v>9228.678293660441</v>
+        <v>9520.182393660441</v>
       </c>
     </row>
     <row r="34">
@@ -4522,7 +4522,7 @@
         <v>70425</v>
       </c>
       <c r="AI34" t="n">
-        <v>10810.64471706758</v>
+        <v>11047.11231706758</v>
       </c>
     </row>
     <row r="35">
@@ -4641,7 +4641,7 @@
         <v>55635</v>
       </c>
       <c r="AI35" t="n">
-        <v>8409.898558219365</v>
+        <v>8465.566058219365</v>
       </c>
     </row>
     <row r="36">
@@ -4760,7 +4760,7 @@
         <v>54575</v>
       </c>
       <c r="AI36" t="n">
-        <v>8225.4010826718</v>
+        <v>8260.0119826718</v>
       </c>
     </row>
     <row r="37">
@@ -4879,7 +4879,7 @@
         <v>74430</v>
       </c>
       <c r="AI37" t="n">
-        <v>11297.9555589105</v>
+        <v>11422.2359589105</v>
       </c>
     </row>
     <row r="38">
@@ -4998,7 +4998,7 @@
         <v>52570</v>
       </c>
       <c r="AI38" t="n">
-        <v>7900.575432474391</v>
+        <v>7907.87753247439</v>
       </c>
     </row>
     <row r="39">
@@ -5117,7 +5117,7 @@
         <v>60345</v>
       </c>
       <c r="AI39" t="n">
-        <v>9355.843697798806</v>
+        <v>9649.760097798806</v>
       </c>
     </row>
     <row r="40">
@@ -5236,7 +5236,7 @@
         <v>56700</v>
       </c>
       <c r="AI40" t="n">
-        <v>8645.930875208967</v>
+        <v>8778.862975208966</v>
       </c>
     </row>
     <row r="41">
@@ -5355,7 +5355,7 @@
         <v>64780</v>
       </c>
       <c r="AI41" t="n">
-        <v>10009.50068848076</v>
+        <v>10293.92908848076</v>
       </c>
     </row>
     <row r="42">
@@ -5474,7 +5474,7 @@
         <v>59845</v>
       </c>
       <c r="AI42" t="n">
-        <v>9249.306860139232</v>
+        <v>9511.662260139232</v>
       </c>
     </row>
     <row r="43">
@@ -5593,7 +5593,7 @@
         <v>55395</v>
       </c>
       <c r="AI43" t="n">
-        <v>8435.470877394411</v>
+        <v>8554.56367739441</v>
       </c>
     </row>
     <row r="44">
@@ -5712,7 +5712,7 @@
         <v>60745</v>
       </c>
       <c r="AI44" t="n">
-        <v>9226.397325248898</v>
+        <v>9332.304725248896</v>
       </c>
     </row>
     <row r="45">
@@ -5831,7 +5831,7 @@
         <v>68520</v>
       </c>
       <c r="AI45" t="n">
-        <v>10394.33782459039</v>
+        <v>10500.24522459038</v>
       </c>
     </row>
     <row r="46">
@@ -5950,7 +5950,7 @@
         <v>68055</v>
       </c>
       <c r="AI46" t="n">
-        <v>10360.92209905728</v>
+        <v>10505.80499905728</v>
       </c>
     </row>
     <row r="47">
@@ -6069,7 +6069,7 @@
         <v>70155</v>
       </c>
       <c r="AI47" t="n">
-        <v>10649.36334696119</v>
+        <v>10760.26864696119</v>
       </c>
     </row>
     <row r="48">
@@ -6188,7 +6188,7 @@
         <v>70270</v>
       </c>
       <c r="AI48" t="n">
-        <v>10842.53844840261</v>
+        <v>11133.48494840261</v>
       </c>
     </row>
     <row r="49">
@@ -6307,7 +6307,7 @@
         <v>59000</v>
       </c>
       <c r="AI49" t="n">
-        <v>9036.629700436994</v>
+        <v>9210.490800436994</v>
       </c>
     </row>
     <row r="50">
@@ -6426,7 +6426,7 @@
         <v>55940</v>
       </c>
       <c r="AI50" t="n">
-        <v>8587.313085076486</v>
+        <v>8776.015685076485</v>
       </c>
     </row>
     <row r="51">
@@ -6545,7 +6545,7 @@
         <v>72685</v>
       </c>
       <c r="AI51" t="n">
-        <v>11152.50960437287</v>
+        <v>11392.03890437287</v>
       </c>
     </row>
     <row r="52">
@@ -6664,7 +6664,7 @@
         <v>97340</v>
       </c>
       <c r="AI52" t="n">
-        <v>14686.84266396497</v>
+        <v>14752.99086396497</v>
       </c>
     </row>
     <row r="53">
@@ -6783,7 +6783,7 @@
         <v>122770</v>
       </c>
       <c r="AI53" t="n">
-        <v>18477.5032639966</v>
+        <v>18502.9522639966</v>
       </c>
     </row>
     <row r="54">
@@ -6902,7 +6902,7 @@
         <v>87475</v>
       </c>
       <c r="AI54" t="n">
-        <v>13223.43948437885</v>
+        <v>13303.98788437886</v>
       </c>
     </row>
     <row r="55">
@@ -7021,7 +7021,7 @@
         <v>53250</v>
       </c>
       <c r="AI55" t="n">
-        <v>8042.114113318176</v>
+        <v>8087.802213318176</v>
       </c>
     </row>
     <row r="56">
@@ -7140,7 +7140,7 @@
         <v>69745</v>
       </c>
       <c r="AI56" t="n">
-        <v>10498.00268219449</v>
+        <v>10521.53478219449</v>
       </c>
     </row>
     <row r="57">
@@ -7259,7 +7259,7 @@
         <v>83255</v>
       </c>
       <c r="AI57" t="n">
-        <v>12598.25963360497</v>
+        <v>12688.25163360497</v>
       </c>
     </row>
   </sheetData>
